--- a/Yahoo-Finance-Scrape-CAP.PA-2022.xlsx
+++ b/Yahoo-Finance-Scrape-CAP.PA-2022.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Python Project Jupyter\Financial-Statement-Tableau\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFECE663-7D4A-4E4F-9687-44F719786511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income_statement" sheetId="1" r:id="rId1"/>
     <sheet name="balance_sheet" sheetId="2" r:id="rId2"/>
     <sheet name="cash_flow" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>ttm</t>
   </si>
@@ -193,13 +199,16 @@
   </si>
   <si>
     <t>Free Cash Flow</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,18 +260,269 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C85D5ED-A651-4879-B6FC-43A5AB5FC78B}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F30" xr:uid="{8C85D5ED-A651-4879-B6FC-43A5AB5FC78B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{61C279B1-5FAF-4009-9A3B-1AF1DB30F1DF}" name="Breakdown" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{33030D76-D0EB-4472-A708-A9D52E2AB92E}" name="ttm"/>
+    <tableColumn id="3" xr3:uid="{56240E17-579D-4B63-A47B-29F5CEA35636}" name="12/31/2021"/>
+    <tableColumn id="4" xr3:uid="{C421F5BE-A8DB-4A7D-BC9F-9FD90CCC3FB7}" name="12/31/2020"/>
+    <tableColumn id="5" xr3:uid="{0726A9E2-9A94-41B1-B1DB-4BADE12A4AE4}" name="12/31/2019"/>
+    <tableColumn id="6" xr3:uid="{00791AD4-842E-4876-BCFB-B96308C6C822}" name="12/31/2018"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2BE891D2-13D1-44A0-B6AD-B37BAE12338C}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:E16" xr:uid="{2BE891D2-13D1-44A0-B6AD-B37BAE12338C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6F5D6674-9F41-4AE6-BDC3-1C5C744D232E}" name="Breakdown" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E99FF983-4F8D-489A-9554-81C79F854B16}" name="12/31/2021"/>
+    <tableColumn id="3" xr3:uid="{A41559E8-3AFC-4AC6-B0A4-0AF57702F05B}" name="12/31/2020"/>
+    <tableColumn id="4" xr3:uid="{B95212B8-008C-4B1E-8E35-2A04CDE806BD}" name="12/31/2019"/>
+    <tableColumn id="5" xr3:uid="{EDEC2D74-2549-4C46-8437-F2975FE46AC2}" name="12/31/2018"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69C10E20-4972-4536-A41D-F1F5E9F26009}" name="Table3" displayName="Table3" ref="A1:F11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:F11" xr:uid="{69C10E20-4972-4536-A41D-F1F5E9F26009}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{EE760210-209A-460D-B9B2-3D92B18CA142}" name="Breakdown" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{95ECF5BC-D7E7-4542-B386-FF284D91D0C9}" name="ttm"/>
+    <tableColumn id="3" xr3:uid="{B467E642-9ED2-4E0D-8675-0F1777D121E6}" name="12/31/2021"/>
+    <tableColumn id="4" xr3:uid="{78568075-C549-46F8-97BD-DE36DB614785}" name="12/31/2020"/>
+    <tableColumn id="5" xr3:uid="{81B24DEA-3860-422F-AC4D-B9AC2C42AF3C}" name="12/31/2019"/>
+    <tableColumn id="6" xr3:uid="{84B4E2CB-6FB6-4E8B-AC59-1963A786DB99}" name="12/31/2018"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -308,7 +568,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +600,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +652,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,31 +845,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -593,7 +899,7 @@
         <v>13197000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +919,7 @@
         <v>9627000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -633,7 +939,7 @@
         <v>3570000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,7 +959,7 @@
         <v>2159000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -673,7 +979,7 @@
         <v>1411000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,7 +999,7 @@
         <v>-48000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -713,7 +1019,7 @@
         <v>1171000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +1039,7 @@
         <v>447000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -753,7 +1059,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -773,7 +1079,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -787,7 +1093,7 @@
         <v>167088</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -801,7 +1107,7 @@
         <v>171697</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -821,7 +1127,7 @@
         <v>1251000</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -835,7 +1141,7 @@
         <v>366000</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -855,7 +1161,7 @@
         <v>11786000</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -875,7 +1181,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -895,7 +1201,7 @@
         <v>840622</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -915,7 +1221,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -935,7 +1241,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -955,7 +1261,7 @@
         <v>-48000</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -975,7 +1281,7 @@
         <v>1259000</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -995,7 +1301,7 @@
         <v>9627000</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -1015,7 +1321,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1035,7 +1341,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1055,7 +1361,7 @@
         <v>-179000</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1381,7 @@
         <v>-179000</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1095,7 +1401,7 @@
         <v>1740000</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
@@ -1137,18 +1443,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1179,7 +1495,7 @@
         <v>16498000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1196,7 +1512,7 @@
         <v>9019000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1529,7 @@
         <v>7479000</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1230,7 +1546,7 @@
         <v>10713000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1247,7 +1563,7 @@
         <v>7480000</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1264,7 +1580,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1597,7 @@
         <v>-648000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1298,7 +1614,7 @@
         <v>1924000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1315,7 +1631,7 @@
         <v>10757000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1332,7 +1648,7 @@
         <v>-648000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1665,7 @@
         <v>3357000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1682,7 @@
         <v>1271000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1383,7 +1699,7 @@
         <v>167294</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -1400,15 +1716,15 @@
         <v>167089</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B16">
-        <v>386.045</v>
+        <v>386.04500000000002</v>
       </c>
       <c r="C16">
-        <v>336.656</v>
+        <v>336.65600000000001</v>
       </c>
       <c r="D16">
         <v>246.78</v>
@@ -1419,18 +1735,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1796,7 @@
         <v>1396000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1487,7 +1816,7 @@
         <v>-728000</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
@@ -1507,7 +1836,7 @@
         <v>-611000</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -1527,7 +1856,7 @@
         <v>2004000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1547,7 +1876,7 @@
         <v>-236000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1567,7 +1896,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1587,7 +1916,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1607,7 +1936,7 @@
         <v>-592000</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
@@ -1624,7 +1953,7 @@
         <v>-483000</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1646,5 +1975,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>